--- a/TestCase/Excel/TestCase2.xlsx
+++ b/TestCase/Excel/TestCase2.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>没什么实际意义，仅做演示用</t>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>注释1</t>
   </si>
   <si>
     <t>注释2</t>
@@ -55,6 +58,9 @@
     <t>注释12</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>TestNest1</t>
   </si>
   <si>
@@ -76,13 +82,16 @@
     <t>Int</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>[]</t>
   </si>
   <si>
     <t>[2]</t>
@@ -92,6 +101,18 @@
   </si>
   <si>
     <t>{3}</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>"测试1"|"测试2"</t>
+  </si>
+  <si>
+    <t>测试"字符串"</t>
+  </si>
+  <si>
+    <t>测试“字符串”</t>
   </si>
 </sst>
 </file>
@@ -99,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,17 +135,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,58 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -196,23 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +196,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -234,6 +246,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,31 +277,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,85 +314,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,91 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +546,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,18 +587,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,169 +611,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,7 +1124,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1108,197 +1137,205 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>11037920</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1306,41 +1343,43 @@
       <c r="A6">
         <v>11037999</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1348,9 +1387,6 @@
       <c r="A7">
         <v>11038000</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="F7">
         <v>3</v>
       </c>
@@ -1383,7 +1419,9 @@
       <c r="A8">
         <v>11038001</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
       <c r="C8">
         <v>4</v>
       </c>
@@ -1425,7 +1463,9 @@
       <c r="A9">
         <v>11038002</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
       <c r="C9">
         <v>5</v>
       </c>
